--- a/artist_streams.xlsx
+++ b/artist_streams.xlsx
@@ -448,1261 +448,1261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tate McRae</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>912125488</v>
+        <v>3503538695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>iñigo quintero</t>
+          <t>The Weeknd</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>456148105</v>
+        <v>2392291700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jung Kook</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1351464143</v>
+        <v>1860944531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>Peso Pluma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3503538695</v>
+        <v>1619304887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mitski</t>
+          <t>Jung Kook</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>569659547</v>
+        <v>1351464143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dua Lipa</t>
+          <t>Drake</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>730278079</v>
+        <v>1107901556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Latto</t>
+          <t>Feid</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506150054</v>
+        <v>996644124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bad Bunny</t>
+          <t>Kanye West</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1860944531</v>
+        <v>994651416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Feid</t>
+          <t>21 Savage</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>996644124</v>
+        <v>915606476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Doja Cat</t>
+          <t>Tate McRae</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>846523154</v>
+        <v>912125488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kenya Grace</t>
+          <t>Arctic Monkeys</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>434569215</v>
+        <v>910590063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>KAROL G</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811730129</v>
+        <v>894328436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Marshmello</t>
+          <t>SZA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>323485593</v>
+        <v>849843785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tyla</t>
+          <t>Doja Cat</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>386289121</v>
+        <v>846523154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jack Harlow</t>
+          <t>Xavi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>767830420</v>
+        <v>822965046</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KAROL G</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>894328436</v>
+        <v>811730129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Peso Pluma</t>
+          <t>Jack Harlow</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1619304887</v>
+        <v>767830420</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Calle 24</t>
+          <t>Dua Lipa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399449792</v>
+        <v>730278079</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chino Pacas</t>
+          <t>Travis Scott</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>399449792</v>
+        <v>718236531</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Arctic Monkeys</t>
+          <t>Eminem</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>910590063</v>
+        <v>707001379</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Myke Towers</t>
+          <t>Bruno Mars</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>428402353</v>
+        <v>698666762</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maluma</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332771103</v>
+        <v>605593454</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Carin Leon</t>
+          <t>Junior H</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>551697397</v>
+        <v>598832118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Harry Styles</t>
+          <t>Olivia Rodrigo</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>319016046</v>
+        <v>586571392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>David Kushner</t>
+          <t>Playboi Carti</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>329493008</v>
+        <v>577913489</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Olivia Rodrigo</t>
+          <t>Mitski</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>586571392</v>
+        <v>569659547</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cassö</t>
+          <t>Kali Uchis</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>293065503</v>
+        <v>564687172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RAYE</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>293065503</v>
+        <v>551703494</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D-Block Europe</t>
+          <t>Carin Leon</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>293065503</v>
+        <v>551697397</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gabito Ballesteros</t>
+          <t>Ariana Grande</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>401593568</v>
+        <v>524641639</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Junior H</t>
+          <t>Lana Del Rey</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>598832118</v>
+        <v>513124718</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>The Weeknd</t>
+          <t>Billie Eilish</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2392291700</v>
+        <v>508354455</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Daft Punk</t>
+          <t>Latto</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>334006002</v>
+        <v>506150054</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JENNIE</t>
+          <t>Grupo Frontera</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>489379022</v>
+        <v>498350831</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lily-Rose Depp</t>
+          <t>JENNIE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>450264055</v>
+        <v>489379022</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Noah Kahan</t>
+          <t>Young Miko</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>425672728</v>
+        <v>480786026</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SZA</t>
+          <t>Zach Bryan</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>849843785</v>
+        <v>471569250</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352377292</v>
+        <v>471341671</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Billie Eilish</t>
+          <t>iñigo quintero</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>508354455</v>
+        <v>456148105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Zach Bryan</t>
+          <t>Lily-Rose Depp</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>471569250</v>
+        <v>450264055</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kacey Musgraves</t>
+          <t>Kenya Grace</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>289294178</v>
+        <v>434569215</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Darell</t>
+          <t>Myke Towers</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145172037</v>
+        <v>428402353</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Drake</t>
+          <t>Noah Kahan</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1107901556</v>
+        <v>425672728</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Yeat</t>
+          <t>Imagine Dragons</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>298260904</v>
+        <v>415127312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lord Huron</t>
+          <t>OneRepublic</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>299017783</v>
+        <v>405819136</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tom Odell</t>
+          <t>Gabito Ballesteros</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>266557627</v>
+        <v>401593568</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gunna</t>
+          <t>Calle 24</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>269421641</v>
+        <v>399449792</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Quevedo</t>
+          <t>Chino Pacas</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>292323099</v>
+        <v>399449792</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>The Neighbourhood</t>
+          <t>Ty Dolla $ign</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>267718149</v>
+        <v>391509564</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Stray Kids</t>
+          <t>¥$</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>29846896</v>
+        <v>391509564</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wham!</t>
+          <t>J. Cole</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>288301814</v>
+        <v>391050937</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Natanael Cano</t>
+          <t>Tyla</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>165243711</v>
+        <v>386289121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Miley Cyrus</t>
+          <t>d4vd</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>324231869</v>
+        <v>355245701</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Young Miko</t>
+          <t>Mariah Carey</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>480786026</v>
+        <v>352377292</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>Sabrina Carpenter</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>605593454</v>
+        <v>347052527</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LE SSERAFIM</t>
+          <t>Daft Punk</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>189038767</v>
+        <v>334006002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Maluma</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>242706941</v>
+        <v>332771103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Swae Lee</t>
+          <t>David Kushner</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>226441166</v>
+        <v>329493008</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rema</t>
+          <t>Miley Cyrus</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>214970422</v>
+        <v>324231869</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Selena Gomez</t>
+          <t>Marshmello</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>224357198</v>
+        <v>323485593</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>David Guetta</t>
+          <t>Madonna</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>226701142</v>
+        <v>322707787</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bebe Rexha</t>
+          <t>Harry Styles</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>226701142</v>
+        <v>319016046</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Grupo Frontera</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>498350831</v>
+        <v>314054108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Grupo Firme</t>
+          <t>Michael Bublé</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>240646370</v>
+        <v>306944316</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Alex Favela</t>
+          <t>Lord Huron</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>153398941</v>
+        <v>299017783</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Grupo Marca Registrada</t>
+          <t>Yeat</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>252161391</v>
+        <v>298260904</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Joaquin Medina</t>
+          <t>D-Block Europe</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>153398941</v>
+        <v>293065503</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>cassö</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>228173127</v>
+        <v>293065503</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Creator</t>
+          <t>RAYE</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>228173127</v>
+        <v>293065503</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kali Uchis</t>
+          <t>Quevedo</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>564687172</v>
+        <v>292323099</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jimin</t>
+          <t>Kacey Musgraves</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>266979563</v>
+        <v>289294178</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>Wham!</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>19806719</v>
+        <v>288301814</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Travis Scott</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>718236531</v>
+        <v>276929446</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Frank Ocean</t>
+          <t>ATL Jacob</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>226258853</v>
+        <v>275763427</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rauw Alejandro</t>
+          <t>Gunna</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>163573451</v>
+        <v>269421641</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Bellakath</t>
+          <t>The Neighbourhood</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>130282486</v>
+        <v>267718149</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Dani Flow</t>
+          <t>Jimin</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>130282486</v>
+        <v>266979563</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Eslabon Armado</t>
+          <t>Tom Odell</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>170206632</v>
+        <v>266557627</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lewis Capaldi</t>
+          <t>Teddy Swims</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>231377957</v>
+        <v>265184843</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>TV Girl</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>142516542</v>
+        <v>261115652</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Central Cee</t>
+          <t>Adele</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>202671901</v>
+        <v>259225849</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Grupo Marca Registrada</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>551703494</v>
+        <v>252161391</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>21 Savage</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>915606476</v>
+        <v>242706941</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Playboi Carti</t>
+          <t>Vance Joy</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>577913489</v>
+        <v>242037955</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Madonna</t>
+          <t>Grupo Firme</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>322707787</v>
+        <v>240646370</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Dj GBR</t>
+          <t>The Kid LAROI</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>123843303</v>
+        <v>235002422</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mc IG</t>
+          <t>Brenda Lee</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>123843303</v>
+        <v>234443913</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MC Ryan SP</t>
+          <t>Lewis Capaldi</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>123843303</v>
+        <v>231377957</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MC PH</t>
+          <t>The Creator</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>123843303</v>
+        <v>228173127</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mc Davi</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>123843303</v>
+        <v>228173127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mc Luki</t>
+          <t>Bebe Rexha</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>123843303</v>
+        <v>226701142</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mc Don Juan</t>
+          <t>David Guetta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>123843303</v>
+        <v>226701142</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mc Kadu</t>
+          <t>Swae Lee</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>123843303</v>
+        <v>226441166</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TrapLaudo</t>
+          <t>Frank Ocean</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>123843303</v>
+        <v>226258853</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MC GP</t>
+          <t>Selena Gomez</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>123843303</v>
+        <v>224357198</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MC GH do 7</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>123843303</v>
+        <v>221568702</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>a-ha</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>158001888</v>
+        <v>221455687</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Anirudh Ravichander</t>
+          <t>Sexyy Red</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>84418983</v>
+        <v>217843638</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Arijit Singh</t>
+          <t>Benson Boone</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>174344458</v>
+        <v>217283042</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Shilpa Rao</t>
+          <t>Rema</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>84418983</v>
+        <v>214970422</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Kumaar</t>
+          <t>Baby Tate</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>84418983</v>
+        <v>206932483</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>J. Cole</t>
+          <t>JID</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>391050937</v>
+        <v>206932483</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Troye Sivan</t>
+          <t>Elton John</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>86850778</v>
+        <v>206802073</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>Wizkid</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>87927032</v>
+        <v>203268241</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>OneRepublic</t>
+          <t>Kyla</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>405819136</v>
+        <v>203268241</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>d4vd</t>
+          <t>Cigarettes After Sex</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>355245701</v>
+        <v>202839124</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bruno Mars</t>
+          <t>Central Cee</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>698666762</v>
+        <v>202671901</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Nadhif Basalamah</t>
+          <t>Keane</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>86374102</v>
+        <v>199711498</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BENNETT</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>122525540</v>
+        <v>197594733</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>The Police</t>
+          <t>Rihanna</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>171359798</v>
+        <v>197131014</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sabrina Carpenter</t>
+          <t>Bobby Helms</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>347052527</v>
+        <v>195129912</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Manuel Turizo</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>142103980</v>
+        <v>190563678</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>LE SSERAFIM</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>197594733</v>
+        <v>189038767</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Adele</t>
+          <t>Hotel Ugly</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>259225849</v>
+        <v>183385202</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>The Kid LAROI</t>
+          <t>Kelly Clarkson</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>235002422</v>
+        <v>182998321</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Morgan Wallen</t>
+          <t>Lil Tecca</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>167842085</v>
+        <v>178233086</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Macklemore &amp; Ryan Lewis</t>
+          <t>Sia</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>154420237</v>
+        <v>178052390</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Macklemore</t>
+          <t>Nicki Minaj</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>154420237</v>
+        <v>177687156</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ryan Lewis</t>
+          <t>Linkin Park</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>154420237</v>
+        <v>175887066</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Ray Dalton</t>
+          <t>Dean Martin</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>154420237</v>
+        <v>174957068</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Vance Joy</t>
+          <t>Arijit Singh</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>242037955</v>
+        <v>174344458</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Hozier</t>
+          <t>The Police</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>147331512</v>
+        <v>171359798</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Keane</t>
+          <t>Eslabon Armado</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>199711498</v>
+        <v>170206632</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Twenty One Pilots</t>
+          <t>Don Toliver</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>38261511</v>
+        <v>168276140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Lana Del Rey</t>
+          <t>Morgan Wallen</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>513124718</v>
+        <v>167842085</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Yng Lvcas</t>
+          <t>Creedence Clearwater Revival</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>123051857</v>
+        <v>167246159</v>
       </c>
     </row>
     <row r="128">
@@ -1718,807 +1718,807 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Lil Tecca</t>
+          <t>Natanael Cano</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>178233086</v>
+        <v>165243711</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Andy Williams</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>314054108</v>
+        <v>165005553</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>Rauw Alejandro</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>471341671</v>
+        <v>163573451</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Steve Lacy</t>
+          <t>Frank Sinatra</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>161846050</v>
+        <v>163474082</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cigarettes After Sex</t>
+          <t>Dwele</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>202839124</v>
+        <v>162532597</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>The Goo Goo Dolls</t>
+          <t>Sophie Ellis-Bextor</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>148609760</v>
+        <v>162288914</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Manuel Turizo</t>
+          <t>Steve Lacy</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>190563678</v>
+        <v>161846050</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Imagine Dragons</t>
+          <t>Tory Lanez</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>415127312</v>
+        <v>159089126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hotel Ugly</t>
+          <t>Milo j</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>183385202</v>
+        <v>158302043</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sexyy Red</t>
+          <t>a-ha</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>217843638</v>
+        <v>158001888</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TV Girl</t>
+          <t>Calvin Harris</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>261115652</v>
+        <v>156963795</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Glass Animals</t>
+          <t>Macklemore &amp; Ryan Lewis</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>145336661</v>
+        <v>154420237</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Tropa do Bruxo</t>
+          <t>Macklemore</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>27916960</v>
+        <v>154420237</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DJ Ws da Igrejinha</t>
+          <t>Ryan Lewis</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>27916960</v>
+        <v>154420237</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SMU</t>
+          <t>Ray Dalton</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>27916960</v>
+        <v>154420237</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Triz</t>
+          <t>Alex Favela</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>27916960</v>
+        <v>153398941</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mc Menor Thalis</t>
+          <t>Joaquin Medina</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>27916960</v>
+        <v>153398941</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Linkin Park</t>
+          <t>The Goo Goo Dolls</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>175887066</v>
+        <v>148609760</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Kanye West</t>
+          <t>Ruth B.</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>994651416</v>
+        <v>148295873</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Dwele</t>
+          <t>Future</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>162532597</v>
+        <v>148012502</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FIFTY FIFTY</t>
+          <t>Hozier</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>84340313</v>
+        <v>147331512</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Wizkid</t>
+          <t>Glass Animals</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>203268241</v>
+        <v>145336661</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Kyla</t>
+          <t>Darell</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>203268241</v>
+        <v>145172037</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Eminem</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>707001379</v>
+        <v>142516542</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>221568702</v>
+        <v>142103980</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bobby Helms</t>
+          <t>Nat King Cole</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>195129912</v>
+        <v>138342906</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ruth B.</t>
+          <t>Conan Gray</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>148295873</v>
+        <v>138326731</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Elton John</t>
+          <t>Em Beihold</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>206802073</v>
+        <v>137099747</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PNAU</t>
+          <t>Stephen Sanchez</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>119208100</v>
+        <v>137099747</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Bellakath</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>276929446</v>
+        <v>130282486</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Milo j</t>
+          <t>Dani Flow</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>158302043</v>
+        <v>130282486</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Brenda Lee</t>
+          <t>Miguel</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>234443913</v>
+        <v>129303140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>girl in red</t>
+          <t>The Walters</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>57079776</v>
+        <v>129175023</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Creedence Clearwater Revival</t>
+          <t>Radiohead</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>167246159</v>
+        <v>127767926</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jhayco</t>
+          <t>Natasha Bedingfield</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>56096708</v>
+        <v>124861096</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Radiohead</t>
+          <t>Mc Davi</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>127767926</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t>Mc Kadu</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>129303140</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Emilia</t>
+          <t>Mc IG</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>110559262</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TINI</t>
+          <t>Mc Don Juan</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>25317993</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>MC GH do 7</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>34161036</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JVKE</t>
+          <t>Dj GBR</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>95936940</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Tory Lanez</t>
+          <t>MC PH</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>159089126</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>TrapLaudo</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>524641639</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
+          <t>Mc Luki</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>102739813</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Jay Rock</t>
+          <t>MC GP</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>82029901</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Plan B</t>
+          <t>MC Ryan SP</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>107202822</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Teddy Swims</t>
+          <t>Yng Lvcas</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>265184843</v>
+        <v>123051857</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Chencho Corleone</t>
+          <t>Gittobeatz</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>51183616</v>
+        <v>122764938</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Nicki Minaj</t>
+          <t>Jere Klein</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>177687156</v>
+        <v>122764938</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Ice Spice</t>
+          <t>BENNETT</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>69104079</v>
+        <v>122525540</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Aqua</t>
+          <t>PNAU</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>49633819</v>
+        <v>119208100</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Rihanna</t>
+          <t>José Feliciano</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>197131014</v>
+        <v>117952333</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Calvin Harris</t>
+          <t>Raj Shekhar</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>156963795</v>
+        <v>115580112</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Shakira</t>
+          <t>Vishal Mishra</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>85673595</v>
+        <v>115580112</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Stephen Sanchez</t>
+          <t>Flo Milli</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>137099747</v>
+        <v>112301723</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Em Beihold</t>
+          <t>Emilia</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>137099747</v>
+        <v>110559262</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Future</t>
+          <t>Los Dareyes De La Sierra</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>148012502</v>
+        <v>109453555</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Don Toliver</t>
+          <t>Nicki Nicole</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>168276140</v>
+        <v>109366487</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Peggy Gou</t>
+          <t>The Ronettes</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>52995186</v>
+        <v>108501508</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Maroon 5</t>
+          <t>Young Thug</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>74167958</v>
+        <v>107482935</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>DJ Snake</t>
+          <t>Plan B</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>37081765</v>
+        <v>107202822</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Manu</t>
+          <t>Rich The Kid</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>7719445</v>
+        <v>106648021</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Simone Mendes</t>
+          <t>Beyoncé</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>7719445</v>
+        <v>106281218</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Fleetwood Mac</t>
+          <t>YG Marley</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>60122630</v>
+        <v>104405221</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Xavi</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>822965046</v>
+        <v>102739813</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Benson Boone</t>
+          <t>Sebastian Esquivel</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>217283042</v>
+        <v>98762450</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ATL Jacob</t>
+          <t>Eugenio Esquivel</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>275763427</v>
+        <v>98762450</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sophie Ellis-Bextor</t>
+          <t>Oscar Ortiz</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>162288914</v>
+        <v>96431099</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Natasha Bedingfield</t>
+          <t>Edgardo Nuñez</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>124861096</v>
+        <v>96431099</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>YG Marley</t>
+          <t>Pusha T</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>104405221</v>
+        <v>96348431</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Anitta</t>
+          <t>JVKE</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>221455687</v>
+        <v>95936940</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Flo Milli</t>
+          <t>Bing Crosby</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>112301723</v>
+        <v>93525053</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Oscar Ortiz</t>
+          <t>Burl Ives</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>96431099</v>
+        <v>92597635</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Edgardo Nuñez</t>
+          <t>Creepy Nuts</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>96431099</v>
+        <v>88552396</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>JID</t>
+          <t>AUR</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>206932483</v>
+        <v>87927032</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Baby Tate</t>
+          <t>Troye Sivan</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>206932483</v>
+        <v>86850778</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Megan Thee Stallion</t>
+          <t>Nadhif Basalamah</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>29852881</v>
+        <v>86374102</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Creepy Nuts</t>
+          <t>John Lennon</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>88552396</v>
+        <v>86093622</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Mesita</t>
+          <t>Yoko Ono</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>85241269</v>
+        <v>86093622</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Nicki Nicole</t>
+          <t>Shakira</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>109366487</v>
+        <v>85673595</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Tiago PZK</t>
+          <t>Mesita</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,1271 +2528,1271 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Eugenio Esquivel</t>
+          <t>Tiago PZK</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>98762450</v>
+        <v>85241269</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Sebastian Esquivel</t>
+          <t>Anirudh Ravichander</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>98762450</v>
+        <v>84418983</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Rich Amiri</t>
+          <t>Shilpa Rao</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>63290965</v>
+        <v>84418983</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Los Dareyes De La Sierra</t>
+          <t>Kumaar</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>109453555</v>
+        <v>84418983</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Kygo</t>
+          <t>FIFTY FIFTY</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>62815586</v>
+        <v>84340313</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Ava Max</t>
+          <t>Jay Rock</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>73869434</v>
+        <v>82029901</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Christian Nodal</t>
+          <t>B. Swanson Quartet</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>40277841</v>
+        <v>81117454</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>The Walters</t>
+          <t>Oscar Maydon</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>129175023</v>
+        <v>79594997</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jere Klein</t>
+          <t>Shakin' Stevens</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>122764938</v>
+        <v>79577663</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Gittobeatz</t>
+          <t>Paul McCartney</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>122764938</v>
+        <v>77012640</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Richy Mitch &amp; The Coal Miners</t>
+          <t>Anuv Jain</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>68633294</v>
+        <v>76722991</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>4batz</t>
+          <t>Juice WRLD</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>35997701</v>
+        <v>76479562</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Vishal Mishra</t>
+          <t>Tito Double P</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>115580112</v>
+        <v>75187814</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Raj Shekhar</t>
+          <t>Maroon 5</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>115580112</v>
+        <v>74167958</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Oscar Maydon</t>
+          <t>Ava Max</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>79594997</v>
+        <v>73869434</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Pusha T</t>
+          <t>Mitchell Ayres &amp; His Orchestra</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>96348431</v>
+        <v>71986770</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Justin Timberlake</t>
+          <t>The Fontane Sisters</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>18428680</v>
+        <v>71986770</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Anuv Jain</t>
+          <t>Perry Como</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>76722991</v>
+        <v>71986770</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Conan Gray</t>
+          <t>Siddharth - Garima</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>138326731</v>
+        <v>71978273</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Michael Marcagi</t>
+          <t>Shreyas Puranik</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>39097816</v>
+        <v>71978273</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Good Neighbours</t>
+          <t>Ice Spice</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>44779766</v>
+        <v>69104079</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>New West</t>
+          <t>James Arthur</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>68263544</v>
+        <v>69068980</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>James Arthur</t>
+          <t>Richy Mitch &amp; The Coal Miners</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>69068980</v>
+        <v>68633294</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>The Killers</t>
+          <t>New West</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>56219449</v>
+        <v>68263544</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Young Thug</t>
+          <t>Elvis Presley</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>107482935</v>
+        <v>67288391</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Gaby Music</t>
+          <t>Chris Rea</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>27374075</v>
+        <v>66986870</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Lunay</t>
+          <t>Mora</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>27374075</v>
+        <v>64033131</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Luar La L</t>
+          <t>Rich Amiri</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>58623260</v>
+        <v>63290965</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>The Chainsmokers</t>
+          <t>Kygo</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>42281126</v>
+        <v>62815586</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Don Omar</t>
+          <t>Band Aid</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>59547754</v>
+        <v>61614392</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Lucenzo</t>
+          <t>Fleetwood Mac</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>59547754</v>
+        <v>60122630</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Tony Aguirre</t>
+          <t>Don Omar</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>54514795</v>
+        <v>59547754</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>The Beatles</t>
+          <t>Lucenzo</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>14834522</v>
+        <v>59547754</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Major Lazer</t>
+          <t>Luar La L</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>12835896</v>
+        <v>58623260</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Mora</t>
+          <t>Darlene Love</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>64033131</v>
+        <v>58498310</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SUICIDAL-IDOL</t>
+          <t>girl in red</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>35648975</v>
+        <v>57079776</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Bad Gyal</t>
+          <t>The Killers</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>33966695</v>
+        <v>56219449</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Tokischa</t>
+          <t>Jhayco</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>33966695</v>
+        <v>56096708</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Michael Bublé</t>
+          <t>Tony Aguirre</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>306944316</v>
+        <v>54514795</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Andy Williams</t>
+          <t>Peggy Gou</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>165005553</v>
+        <v>52995186</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Sia</t>
+          <t>Chencho Corleone</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>178052390</v>
+        <v>51183616</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Dean Martin</t>
+          <t>Ana Castela</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>174957068</v>
+        <v>50817926</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Kelly Clarkson</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>182998321</v>
+        <v>50817926</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>José Feliciano</t>
+          <t>Aqua</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>117952333</v>
+        <v>49633819</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>The Ronettes</t>
+          <t>Chuck Berry</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>108501508</v>
+        <v>48319739</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>John Lennon</t>
+          <t>USHER</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>86093622</v>
+        <v>47873641</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Yoko Ono</t>
+          <t>Britney Spears</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>86093622</v>
+        <v>47746630</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Frank Sinatra</t>
+          <t>The Pogues</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>163474082</v>
+        <v>46995745</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>B. Swanson Quartet</t>
+          <t>Kirsty MacColl</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>81117454</v>
+        <v>46995745</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Nat King Cole</t>
+          <t>Good Neighbours</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>138342906</v>
+        <v>44779766</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Manan Bhardwaj</t>
+          <t>Bryant Myers</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>40060300</v>
+        <v>43507629</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Bhupinder Babbal</t>
+          <t>Cris Mj</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>40060300</v>
+        <v>43455025</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Shakin' Stevens</t>
+          <t>FloyyMenor</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>79577663</v>
+        <v>43455025</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Burl Ives</t>
+          <t>The Chainsmokers</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>92597635</v>
+        <v>42281126</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Paul McCartney</t>
+          <t>Djo</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>77012640</v>
+        <v>42088829</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Chris Rea</t>
+          <t>Henri René and His Orchestra</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>66986870</v>
+        <v>41979062</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Shreyas Puranik</t>
+          <t>Eartha Kitt</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>71978273</v>
+        <v>41979062</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Siddharth - Garima</t>
+          <t>Taiu</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>71978273</v>
+        <v>41271437</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Perry Como</t>
+          <t>Tiësto</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>71986770</v>
+        <v>40800942</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>The Fontane Sisters</t>
+          <t>Christian Nodal</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>71986770</v>
+        <v>40277841</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Mitchell Ayres &amp; His Orchestra</t>
+          <t>Bhupinder Babbal</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>71986770</v>
+        <v>40060300</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Bing Crosby</t>
+          <t>Manan Bhardwaj</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>93525053</v>
+        <v>40060300</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Band Aid</t>
+          <t>The Beach Boys</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>61614392</v>
+        <v>39365797</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Juice WRLD</t>
+          <t>Michael Marcagi</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>76479562</v>
+        <v>39097816</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Darlene Love</t>
+          <t>Twenty One Pilots</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>58498310</v>
+        <v>38261511</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Jaani</t>
+          <t>Mahmood</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>21719218</v>
+        <v>37263179</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>B Praak</t>
+          <t>DJ Snake</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>21719218</v>
+        <v>37081765</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Eartha Kitt</t>
+          <t>4batz</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>41979062</v>
+        <v>35997701</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Henri René and His Orchestra</t>
+          <t>SUICIDAL-IDOL</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>41979062</v>
+        <v>35648975</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Elvis Presley</t>
+          <t>The Jackson 5</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>67288391</v>
+        <v>35462610</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>The Pogues</t>
+          <t>Sam Smith</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>46995745</v>
+        <v>35158016</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Kirsty MacColl</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>46995745</v>
+        <v>34161036</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Britney Spears</t>
+          <t>Bad Gyal</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>47746630</v>
+        <v>33966695</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Tito Double P</t>
+          <t>Tokischa</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>75187814</v>
+        <v>33966695</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Chuck Berry</t>
+          <t>Pentatonix</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>48319739</v>
+        <v>33849140</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Lil Uzi Vert</t>
+          <t>Ludacris</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>19088843</v>
+        <v>30873075</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>The Beach Boys</t>
+          <t>Lil Jon</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>39365797</v>
+        <v>30873075</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Pentatonix</t>
+          <t>Lauana Prado</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>33849140</v>
+        <v>30378839</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Bryant Myers</t>
+          <t>Megan Thee Stallion</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>43507629</v>
+        <v>29852881</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>juan karlos</t>
+          <t>Stray Kids</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>19829640</v>
+        <v>29846896</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Loreen</t>
+          <t>Eagles</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>25077035</v>
+        <v>28471608</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Taiu</t>
+          <t>SMU</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>41271437</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Jasleen Royal</t>
+          <t>Triz</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>17947202</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Harrykahanhai</t>
+          <t>DJ Ws da Igrejinha</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>17947202</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Eladio Carrion</t>
+          <t>Tropa do Bruxo</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>24163254</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>YOVNGCHIMI</t>
+          <t>Mc Menor Thalis</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>25261380</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Sam Smith</t>
+          <t>Gaby Music</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>35158016</v>
+        <v>27374075</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Kim Petras</t>
+          <t>Lunay</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>24204883</v>
+        <v>27374075</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Tainy</t>
+          <t>Luke Combs</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>16982920</v>
+        <v>26855093</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Anuel AA</t>
+          <t>Geolier</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>15593015</v>
+        <v>25442203</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Mambo Kingz</t>
+          <t>TINI</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>15593015</v>
+        <v>25317993</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DJ Luian</t>
+          <t>YOVNGCHIMI</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>15593015</v>
+        <v>25261380</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Eagles</t>
+          <t>Loreen</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>28471608</v>
+        <v>25077035</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>The Jackson 5</t>
+          <t>Bruce Springsteen</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>35462610</v>
+        <v>24821442</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Jonas Brothers</t>
+          <t>Avicii</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>23346338</v>
+        <v>24525205</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Bruce Springsteen</t>
+          <t>One Direction</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>24821442</v>
+        <v>24465748</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Laufey</t>
+          <t>Queen</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>23086742</v>
+        <v>24237502</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>The Andrews Sisters</t>
+          <t>Kim Petras</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>23084832</v>
+        <v>24204883</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Gwen Stefani</t>
+          <t>Eladio Carrion</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>22081546</v>
+        <v>24163254</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Blake Shelton</t>
+          <t>TATOOL</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>22081546</v>
+        <v>24125218</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Queen</t>
+          <t>Trueno</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>24237502</v>
+        <v>24125218</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Daryl Hall &amp; John Oates</t>
+          <t>Jonas Brothers</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>23338468</v>
+        <v>23346338</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Beyoncé</t>
+          <t>Daryl Hall &amp; John Oates</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>106281218</v>
+        <v>23338468</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>¥$</t>
+          <t>Laufey</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>391509564</v>
+        <v>23086742</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Ty Dolla $ign</t>
+          <t>The Andrews Sisters</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>391509564</v>
+        <v>23084832</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Rich The Kid</t>
+          <t>Blake Shelton</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>106648021</v>
+        <v>22081546</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Djo</t>
+          <t>Gwen Stefani</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>42088829</v>
+        <v>22081546</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>FloyyMenor</t>
+          <t>B Praak</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>43455025</v>
+        <v>21719218</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Cris Mj</t>
+          <t>Jaani</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>43455025</v>
+        <v>21719218</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Beat Record</t>
+          <t>UMI</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>15367818</v>
+        <v>20382688</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Tiësto</t>
+          <t>Julión Álvarez y su Norteño Banda</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>40800942</v>
+        <v>20069836</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Trueno</t>
+          <t>juan karlos</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>24125218</v>
+        <v>19829640</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>TATOOL</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>24125218</v>
+        <v>19806719</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Bryson Tiller</t>
+          <t>Muni Long</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>11452312</v>
+        <v>19250029</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Julión Álvarez y su Norteño Banda</t>
+          <t>wonda</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>20069836</v>
+        <v>19220630</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Muni Long</t>
+          <t>KZA Produções</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>19250029</v>
+        <v>19220630</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>One Direction</t>
+          <t>Lil Uzi Vert</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>24465748</v>
+        <v>19088843</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Bob Marley &amp; The Wailers</t>
+          <t>Justin Timberlake</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>17112836</v>
+        <v>18428680</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Avicii</t>
+          <t>Jasleen Royal</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>24525205</v>
+        <v>17947202</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>USHER</t>
+          <t>Harrykahanhai</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>47873641</v>
+        <v>17947202</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Lil Jon</t>
+          <t>Marvin Gaye</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>30873075</v>
+        <v>17341155</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Ludacris</t>
+          <t>Tammi Terrell</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>30873075</v>
+        <v>17341155</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Dimitri Vegas &amp; Like Mike</t>
+          <t>TWENTY SIX</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>8412394</v>
+        <v>17313005</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Dido</t>
+          <t>Tayson Kryss</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>8412394</v>
+        <v>17313005</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>W&amp;W</t>
+          <t>Bob Marley &amp; The Wailers</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>8412394</v>
+        <v>17112836</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Dimitri Vegas</t>
+          <t>Tainy</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>8412394</v>
+        <v>16982920</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Like Mike</t>
+          <t>Norma Jean Martine</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>8412394</v>
+        <v>16670216</v>
       </c>
     </row>
     <row r="337">
@@ -3808,611 +3808,611 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Norma Jean Martine</t>
+          <t>Paul Russell</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>16670216</v>
+        <v>16421754</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Mahmood</t>
+          <t>Anuel AA</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>37263179</v>
+        <v>15593015</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Luke Combs</t>
+          <t>Mambo Kingz</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>26855093</v>
+        <v>15593015</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Geolier</t>
+          <t>DJ Luian</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>25442203</v>
+        <v>15593015</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>TWENTY SIX</t>
+          <t>Ñengo Flow</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>17313005</v>
+        <v>15428944</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Tayson Kryss</t>
+          <t>De La Ghetto</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>17313005</v>
+        <v>15428944</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Annalisa</t>
+          <t>Arcángel</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>11744002</v>
+        <v>15428944</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Ivete Sangalo</t>
+          <t>Beat Record</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>11626550</v>
+        <v>15367818</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>LUDMILLA</t>
+          <t>The Beatles</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>11626550</v>
+        <v>14834522</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Angelina Mango</t>
+          <t>Cher</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>11411679</v>
+        <v>13939651</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Parangolé</t>
+          <t>Donny Hathaway</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>10683040</v>
+        <v>13293503</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Leo Santana</t>
+          <t>Major Lazer</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>10683040</v>
+        <v>12835896</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Ghali</t>
+          <t>Gene Autry</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>9631062</v>
+        <v>12644239</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>PEDRO SAMPAIO</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>8997253</v>
+        <v>11816835</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Irama</t>
+          <t>Mykola Dmytrovych Leontovych</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>8736241</v>
+        <v>11816835</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Pitbull</t>
+          <t>Annalisa</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>8535915</v>
+        <v>11744002</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Alicia Keys</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>8464651</v>
+        <v>11626550</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Michael Jackson</t>
+          <t>Ivete Sangalo</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>10103614</v>
+        <v>11626550</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>The Citizens of Halloween</t>
+          <t>Bryson Tiller</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>9594193</v>
+        <v>11452312</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Bobby "Boris" Pickett</t>
+          <t>Lil Durk</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>9103266</v>
+        <v>11437647</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>The Crypt-Kickers</t>
+          <t>Angelina Mango</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>9103266</v>
+        <v>11411679</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Luan Santana</t>
+          <t>Stevie Wonder</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>50817926</v>
+        <v>10935284</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Ana Castela</t>
+          <t>Offset</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>50817926</v>
+        <v>10736180</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>UMI</t>
+          <t>Vince Guaraldi Trio</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>20382688</v>
+        <v>10697842</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Lauana Prado</t>
+          <t>Parangolé</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>30378839</v>
+        <v>10683040</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>KZA Produções</t>
+          <t>Leo Santana</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>19220630</v>
+        <v>10683040</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>wonda</t>
+          <t>The Puppini Sisters</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>19220630</v>
+        <v>10204012</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Black Eyed Peas</t>
+          <t>Michael Jackson</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>8503727</v>
+        <v>10103614</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Paul Russell</t>
+          <t>*NSYNC</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>16421754</v>
+        <v>9940718</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ABBA</t>
+          <t>Leona Lewis</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>7947485</v>
+        <v>9864017</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Blessd</t>
+          <t>Brent Faiyaz</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>8783985</v>
+        <v>9784192</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Marvin Gaye</t>
+          <t>Summer Walker</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>17341155</v>
+        <v>9743353</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Tammi Terrell</t>
+          <t>Ella Fitzgerald</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>17341155</v>
+        <v>9697579</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Arcángel</t>
+          <t>Ghali</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>15428944</v>
+        <v>9631062</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>De La Ghetto</t>
+          <t>The Citizens of Halloween</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>15428944</v>
+        <v>9594193</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Ñengo Flow</t>
+          <t>Idina Menzel</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>15428944</v>
+        <v>9506181</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Offset</t>
+          <t>Bobby "Boris" Pickett</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>10736180</v>
+        <v>9103266</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>League of Legends</t>
+          <t>The Crypt-Kickers</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>7751725</v>
+        <v>9103266</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Cher</t>
+          <t>Tommy Newport</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>13939651</v>
+        <v>9099918</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Donny Hathaway</t>
+          <t>Mikky Ekko</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>13293503</v>
+        <v>9099918</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Gene Autry</t>
+          <t>Meghan Trainor</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>12644239</v>
+        <v>9041194</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Mykola Dmytrovych Leontovych</t>
+          <t>Brett Eldredge</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>11816835</v>
+        <v>9041194</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>11816835</v>
+        <v>8997253</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Stevie Wonder</t>
+          <t>Wizzard</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>10935284</v>
+        <v>8977788</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Vince Guaraldi Trio</t>
+          <t>Lil Nas X</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>10697842</v>
+        <v>8855809</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>The Puppini Sisters</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>10204012</v>
+        <v>8849436</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>*NSYNC</t>
+          <t>Blessd</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>9940718</v>
+        <v>8783985</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Leona Lewis</t>
+          <t>Irama</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>9864017</v>
+        <v>8736241</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Ella Fitzgerald</t>
+          <t>Pitbull</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>9697579</v>
+        <v>8535915</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Idina Menzel</t>
+          <t>Burna Boy</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>9506181</v>
+        <v>8511674</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Brett Eldredge</t>
+          <t>Black Eyed Peas</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>9041194</v>
+        <v>8503727</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Meghan Trainor</t>
+          <t>Alicia Keys</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>9041194</v>
+        <v>8464651</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Wizzard</t>
+          <t>Dimitri Vegas &amp; Like Mike</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>8977788</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Dido</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>8849436</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Lil Durk</t>
+          <t>W&amp;W</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>11437647</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Brent Faiyaz</t>
+          <t>Dimitri Vegas</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>9784192</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Summer Walker</t>
+          <t>Like Mike</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>9743353</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Tommy Newport</t>
+          <t>ABBA</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>9099918</v>
+        <v>7947485</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Mikky Ekko</t>
+          <t>League of Legends</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>9099918</v>
+        <v>7751725</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Lil Nas X</t>
+          <t>Manu</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>8855809</v>
+        <v>7719445</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Burna Boy</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>8511674</v>
+        <v>7719445</v>
       </c>
     </row>
   </sheetData>

--- a/artist_streams.xlsx
+++ b/artist_streams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>Peso Pluma</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3503538695</v>
+        <v>1619304887</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2392291700</v>
+        <v>1606565063</v>
       </c>
     </row>
     <row r="4">
@@ -472,87 +472,87 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1860944531</v>
+        <v>1087600193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Peso Pluma</t>
+          <t>Drake</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1619304887</v>
+        <v>1067832062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jung Kook</t>
+          <t>Feid</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1351464143</v>
+        <v>980667280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Drake</t>
+          <t>Jung Kook</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1107901556</v>
+        <v>916188405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Feid</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>996644124</v>
+        <v>688697656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kanye West</t>
+          <t>21 Savage</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>994651416</v>
+        <v>683303146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21 Savage</t>
+          <t>Kanye West</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>915606476</v>
+        <v>650390592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tate McRae</t>
+          <t>Playboi Carti</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>912125488</v>
+        <v>577913489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Arctic Monkeys</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>910590063</v>
+        <v>551703494</v>
       </c>
     </row>
     <row r="13">
@@ -562,3856 +562,2386 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>894328436</v>
+        <v>538494810</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SZA</t>
+          <t>Latto</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>849843785</v>
+        <v>506150054</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Doja Cat</t>
+          <t>Grupo Frontera</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846523154</v>
+        <v>498350831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Xavi</t>
+          <t>Young Miko</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822965046</v>
+        <v>480786026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Lily-Rose Depp</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>811730129</v>
+        <v>450264055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jack Harlow</t>
+          <t>JENNIE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>767830420</v>
+        <v>450264055</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dua Lipa</t>
+          <t>Gabito Ballesteros</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>730278079</v>
+        <v>401593568</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Travis Scott</t>
+          <t>Chino Pacas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718236531</v>
+        <v>399449792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eminem</t>
+          <t>Calle 24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>707001379</v>
+        <v>399449792</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bruno Mars</t>
+          <t>Junior H</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>698666762</v>
+        <v>391721472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>¥$</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>605593454</v>
+        <v>391509564</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Junior H</t>
+          <t>Ty Dolla $ign</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>598832118</v>
+        <v>391509564</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Olivia Rodrigo</t>
+          <t>Kali Uchis</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>586571392</v>
+        <v>388562174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Playboi Carti</t>
+          <t>Daft Punk</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>577913489</v>
+        <v>334006002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mitski</t>
+          <t>Maluma</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>569659547</v>
+        <v>332771103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kali Uchis</t>
+          <t>Travis Scott</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564687172</v>
+        <v>327359232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Carin Leon</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>551703494</v>
+        <v>325406982</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carin Leon</t>
+          <t>Marshmello</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>551697397</v>
+        <v>323485593</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>Madonna</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>524641639</v>
+        <v>322707787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lana Del Rey</t>
+          <t>Jack Harlow</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>513124718</v>
+        <v>315652245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Billie Eilish</t>
+          <t>D-Block Europe</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>508354455</v>
+        <v>293065503</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Latto</t>
+          <t>cassö</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506150054</v>
+        <v>293065503</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Grupo Frontera</t>
+          <t>RAYE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>498350831</v>
+        <v>293065503</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JENNIE</t>
+          <t>Kacey Musgraves</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>489379022</v>
+        <v>289294178</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Young Miko</t>
+          <t>Zach Bryan</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>480786026</v>
+        <v>289294178</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Zach Bryan</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>471569250</v>
+        <v>276929446</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>ATL Jacob</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>471341671</v>
+        <v>275763427</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>iñigo quintero</t>
+          <t>Yeat</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>456148105</v>
+        <v>275365532</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lily-Rose Depp</t>
+          <t>Grupo Marca Registrada</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>450264055</v>
+        <v>252161391</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kenya Grace</t>
+          <t>SZA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>434569215</v>
+        <v>244915760</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Myke Towers</t>
+          <t>Grupo Firme</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>428402353</v>
+        <v>240646370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Noah Kahan</t>
+          <t>The Kid LAROI</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>425672728</v>
+        <v>235002422</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Imagine Dragons</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>415127312</v>
+        <v>228173127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OneRepublic</t>
+          <t>The Creator</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>405819136</v>
+        <v>228173127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gabito Ballesteros</t>
+          <t>Bebe Rexha</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>401593568</v>
+        <v>226701142</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Calle 24</t>
+          <t>David Guetta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>399449792</v>
+        <v>226701142</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Chino Pacas</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>399449792</v>
+        <v>226441166</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ty Dolla $ign</t>
+          <t>Swae Lee</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>391509564</v>
+        <v>226441166</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>¥$</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>391509564</v>
+        <v>221455687</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>J. Cole</t>
+          <t>Sexyy Red</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>391050937</v>
+        <v>217843638</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tyla</t>
+          <t>Selena Gomez</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>386289121</v>
+        <v>214970422</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>d4vd</t>
+          <t>Rema</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>355245701</v>
+        <v>214970422</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>JID</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>352377292</v>
+        <v>206932483</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sabrina Carpenter</t>
+          <t>Baby Tate</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>347052527</v>
+        <v>206932483</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Daft Punk</t>
+          <t>Kyla</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>334006002</v>
+        <v>203268241</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Maluma</t>
+          <t>Wizkid</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>332771103</v>
+        <v>203268241</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>David Kushner</t>
+          <t>Central Cee</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>329493008</v>
+        <v>202671901</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Miley Cyrus</t>
+          <t>Billie Eilish</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>324231869</v>
+        <v>197594733</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marshmello</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>323485593</v>
+        <v>197594733</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Madonna</t>
+          <t>Lana Del Rey</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>322707787</v>
+        <v>197345914</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Harry Styles</t>
+          <t>J. Cole</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>319016046</v>
+        <v>193017347</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>314054108</v>
+        <v>190533977</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Michael Bublé</t>
+          <t>Elton John</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>306944316</v>
+        <v>180750983</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lord Huron</t>
+          <t>Arijit Singh</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>299017783</v>
+        <v>174344458</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Yeat</t>
+          <t>Eslabon Armado</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>298260904</v>
+        <v>170206632</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D-Block Europe</t>
+          <t>Rihanna</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>293065503</v>
+        <v>165808930</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>cassö</t>
+          <t>Xavi</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>293065503</v>
+        <v>163968350</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RAYE</t>
+          <t>Dwele</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>293065503</v>
+        <v>162532597</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Quevedo</t>
+          <t>Calvin Harris</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>292323099</v>
+        <v>156963795</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kacey Musgraves</t>
+          <t>Ryan Lewis</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>289294178</v>
+        <v>154420237</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Wham!</t>
+          <t>Ray Dalton</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>288301814</v>
+        <v>154420237</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Macklemore &amp; Ryan Lewis</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>276929446</v>
+        <v>154420237</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ATL Jacob</t>
+          <t>Macklemore</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>275763427</v>
+        <v>154420237</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gunna</t>
+          <t>Joaquin Medina</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>269421641</v>
+        <v>153398941</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>The Neighbourhood</t>
+          <t>Alex Favela</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>267718149</v>
+        <v>153398941</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jimin</t>
+          <t>Future</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>266979563</v>
+        <v>148012502</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Tom Odell</t>
+          <t>Don Toliver</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>266557627</v>
+        <v>148012502</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Teddy Swims</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>265184843</v>
+        <v>142516542</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TV Girl</t>
+          <t>Stephen Sanchez</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>261115652</v>
+        <v>137099747</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Adele</t>
+          <t>Em Beihold</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>259225849</v>
+        <v>137099747</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Grupo Marca Registrada</t>
+          <t>Ariana Grande</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>252161391</v>
+        <v>132450285</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Natanael Cano</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>242706941</v>
+        <v>131070357</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Vance Joy</t>
+          <t>Bellakath</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>242037955</v>
+        <v>130282486</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Grupo Firme</t>
+          <t>Dani Flow</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>240646370</v>
+        <v>130282486</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The Kid LAROI</t>
+          <t>Dj GBR</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>235002422</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Brenda Lee</t>
+          <t>Mc Don Juan</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>234443913</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Lewis Capaldi</t>
+          <t>Mc Luki</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>231377957</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The Creator</t>
+          <t>Mc IG</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>228173127</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>MC Ryan SP</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>228173127</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bebe Rexha</t>
+          <t>MC PH</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>226701142</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>David Guetta</t>
+          <t>Mc Davi</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>226701142</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Swae Lee</t>
+          <t>MC GH do 7</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>226441166</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Frank Ocean</t>
+          <t>Mc Kadu</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>226258853</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Selena Gomez</t>
+          <t>TrapLaudo</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>224357198</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>MC GP</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>221568702</v>
+        <v>123843303</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Anitta</t>
+          <t>Milo j</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>221455687</v>
+        <v>123417110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sexyy Red</t>
+          <t>Yng Lvcas</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>217843638</v>
+        <v>123051857</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Benson Boone</t>
+          <t>Gittobeatz</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>217283042</v>
+        <v>122764938</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Rema</t>
+          <t>Jere Klein</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>214970422</v>
+        <v>122764938</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Baby Tate</t>
+          <t>PNAU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>206932483</v>
+        <v>119208100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>JID</t>
+          <t>Dua Lipa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>206932483</v>
+        <v>119208100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Elton John</t>
+          <t>Raj Shekhar</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>206802073</v>
+        <v>115580112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wizkid</t>
+          <t>Vishal Mishra</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>203268241</v>
+        <v>115580112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kyla</t>
+          <t>Emilia</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>203268241</v>
+        <v>110559262</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cigarettes After Sex</t>
+          <t>Los Dareyes De La Sierra</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>202839124</v>
+        <v>109453555</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Central Cee</t>
+          <t>Nicki Nicole</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>202671901</v>
+        <v>109366487</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Keane</t>
+          <t>Young Thug</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>199711498</v>
+        <v>107482935</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>Rich The Kid</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>197594733</v>
+        <v>106648021</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Rihanna</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>197131014</v>
+        <v>102739813</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bobby Helms</t>
+          <t>Eugenio Esquivel</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>195129912</v>
+        <v>98762450</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Manuel Turizo</t>
+          <t>Sebastian Esquivel</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>190563678</v>
+        <v>98762450</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LE SSERAFIM</t>
+          <t>Oscar Ortiz</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>189038767</v>
+        <v>96431099</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hotel Ugly</t>
+          <t>Edgardo Nuñez</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>183385202</v>
+        <v>96431099</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kelly Clarkson</t>
+          <t>Pusha T</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>182998321</v>
+        <v>96348431</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lil Tecca</t>
+          <t>Nicki Minaj</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>178233086</v>
+        <v>90442246</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sia</t>
+          <t>John Lennon</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>178052390</v>
+        <v>86093622</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Nicki Minaj</t>
+          <t>Yoko Ono</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>177687156</v>
+        <v>86093622</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Linkin Park</t>
+          <t>Shakira</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>175887066</v>
+        <v>85673595</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Dean Martin</t>
+          <t>Eminem</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>174957068</v>
+        <v>85324697</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Arijit Singh</t>
+          <t>Tiago PZK</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>174344458</v>
+        <v>85241269</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>The Police</t>
+          <t>Mesita</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>171359798</v>
+        <v>85241269</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Eslabon Armado</t>
+          <t>Shilpa Rao</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>170206632</v>
+        <v>84418983</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Don Toliver</t>
+          <t>Kumaar</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>168276140</v>
+        <v>84418983</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Morgan Wallen</t>
+          <t>Anirudh Ravichander</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>167842085</v>
+        <v>84418983</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Creedence Clearwater Revival</t>
+          <t>Jay Rock</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>167246159</v>
+        <v>82029901</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Tears For Fears</t>
+          <t>Frank Sinatra</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>165380601</v>
+        <v>81117454</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Natanael Cano</t>
+          <t>B. Swanson Quartet</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>165243711</v>
+        <v>81117454</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Andy Williams</t>
+          <t>Oscar Maydon</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>165005553</v>
+        <v>79594997</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Rauw Alejandro</t>
+          <t>Juice WRLD</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>163573451</v>
+        <v>76479562</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Frank Sinatra</t>
+          <t>Tito Double P</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>163474082</v>
+        <v>75187814</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Dwele</t>
+          <t>The Fontane Sisters</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>162532597</v>
+        <v>71986770</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sophie Ellis-Bextor</t>
+          <t>Mitchell Ayres &amp; His Orchestra</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>162288914</v>
+        <v>71986770</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Steve Lacy</t>
+          <t>Perry Como</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>161846050</v>
+        <v>71986770</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Tory Lanez</t>
+          <t>Siddharth - Garima</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>159089126</v>
+        <v>71978273</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Milo j</t>
+          <t>Shreyas Puranik</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>158302043</v>
+        <v>71978273</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>a-ha</t>
+          <t>Mora</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>158001888</v>
+        <v>64033131</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Calvin Harris</t>
+          <t>Kygo</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>156963795</v>
+        <v>62815586</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Macklemore &amp; Ryan Lewis</t>
+          <t>Ava Max</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>154420237</v>
+        <v>62815586</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Macklemore</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>154420237</v>
+        <v>61542883</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ryan Lewis</t>
+          <t>Lucenzo</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>154420237</v>
+        <v>59547754</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ray Dalton</t>
+          <t>Don Omar</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>154420237</v>
+        <v>59547754</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Alex Favela</t>
+          <t>Luar La L</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>153398941</v>
+        <v>58623260</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Joaquin Medina</t>
+          <t>Tony Aguirre</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>153398941</v>
+        <v>54514795</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The Goo Goo Dolls</t>
+          <t>Chencho Corleone</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>148609760</v>
+        <v>51183616</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ruth B.</t>
+          <t>Ana Castela</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>148295873</v>
+        <v>50817926</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Future</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>148012502</v>
+        <v>50817926</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Hozier</t>
+          <t>Kelly Clarkson</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>147331512</v>
+        <v>49782376</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Glass Animals</t>
+          <t>Aqua</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>145336661</v>
+        <v>49633819</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Darell</t>
+          <t>Ice Spice</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>145172037</v>
+        <v>49633819</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>USHER</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>142516542</v>
+        <v>47873641</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Kirsty MacColl</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>142103980</v>
+        <v>46995745</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nat King Cole</t>
+          <t>The Pogues</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>138342906</v>
+        <v>46995745</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Conan Gray</t>
+          <t>Bryant Myers</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>138326731</v>
+        <v>43507629</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Em Beihold</t>
+          <t>Cris Mj</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>137099747</v>
+        <v>43455025</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Stephen Sanchez</t>
+          <t>FloyyMenor</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>137099747</v>
+        <v>43455025</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Bellakath</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>130282486</v>
+        <v>42281126</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dani Flow</t>
+          <t>The Chainsmokers</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>130282486</v>
+        <v>42281126</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t>Eartha Kitt</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>129303140</v>
+        <v>41979062</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>The Walters</t>
+          <t>Henri René and His Orchestra</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>129175023</v>
+        <v>41979062</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Radiohead</t>
+          <t>Taiu</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>127767926</v>
+        <v>41271437</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Natasha Bedingfield</t>
+          <t>Tiësto</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>124861096</v>
+        <v>40800942</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Mc Davi</t>
+          <t>Christian Nodal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>123843303</v>
+        <v>40277841</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Mc Kadu</t>
+          <t>Doja Cat</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>123843303</v>
+        <v>40076930</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Mc IG</t>
+          <t>Bhupinder Babbal</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>123843303</v>
+        <v>40060300</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mc Don Juan</t>
+          <t>Manan Bhardwaj</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>123843303</v>
+        <v>40060300</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MC GH do 7</t>
+          <t>DJ Snake</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>123843303</v>
+        <v>37081765</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Dj GBR</t>
+          <t>Bad Gyal</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>123843303</v>
+        <v>33966695</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MC PH</t>
+          <t>Tokischa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>123843303</v>
+        <v>33966695</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TrapLaudo</t>
+          <t>Quevedo</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>123843303</v>
+        <v>31990809</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Mc Luki</t>
+          <t>Ludacris</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>123843303</v>
+        <v>30873075</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MC GP</t>
+          <t>Lil Jon</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>123843303</v>
+        <v>30873075</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MC Ryan SP</t>
+          <t>Mc Menor Thalis</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>123843303</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Yng Lvcas</t>
+          <t>Triz</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>123051857</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Gittobeatz</t>
+          <t>SMU</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>122764938</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Jere Klein</t>
+          <t>DJ Ws da Igrejinha</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>122764938</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BENNETT</t>
+          <t>Tropa do Bruxo</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>122525540</v>
+        <v>27916960</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PNAU</t>
+          <t>Gaby Music</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>119208100</v>
+        <v>27374075</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>José Feliciano</t>
+          <t>Lunay</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>117952333</v>
+        <v>27374075</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Raj Shekhar</t>
+          <t>TINI</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>115580112</v>
+        <v>25317993</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Vishal Mishra</t>
+          <t>YOVNGCHIMI</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>115580112</v>
+        <v>25261380</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Flo Milli</t>
+          <t>Sam Smith</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>112301723</v>
+        <v>24204883</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Emilia</t>
+          <t>Kim Petras</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>110559262</v>
+        <v>24204883</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Los Dareyes De La Sierra</t>
+          <t>Eladio Carrion</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>109453555</v>
+        <v>24163254</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Nicki Nicole</t>
+          <t>TATOOL</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>109366487</v>
+        <v>24125218</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>The Ronettes</t>
+          <t>Trueno</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>108501508</v>
+        <v>24125218</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Young Thug</t>
+          <t>The Andrews Sisters</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>107482935</v>
+        <v>23084832</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Plan B</t>
+          <t>Bing Crosby</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>107202822</v>
+        <v>23084832</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Rich The Kid</t>
+          <t>Gwen Stefani</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>106648021</v>
+        <v>22081546</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Beyoncé</t>
+          <t>Blake Shelton</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>106281218</v>
+        <v>22081546</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>YG Marley</t>
+          <t>Jaani</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>104405221</v>
+        <v>21719218</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
+          <t>B Praak</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>102739813</v>
+        <v>21719218</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sebastian Esquivel</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>98762450</v>
+        <v>20382688</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Eugenio Esquivel</t>
+          <t>UMI</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>98762450</v>
+        <v>20382688</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Oscar Ortiz</t>
+          <t>Michael Bublé</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>96431099</v>
+        <v>19710193</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Edgardo Nuñez</t>
+          <t>MC Meno Dani</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>96431099</v>
+        <v>19220630</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Pusha T</t>
+          <t>JC NO BEAT</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>96348431</v>
+        <v>19220630</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JVKE</t>
+          <t>Silva Mc</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>95936940</v>
+        <v>19220630</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Bing Crosby</t>
+          <t>DJ F7</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>93525053</v>
+        <v>19220630</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Burl Ives</t>
+          <t>Lil Uzi Vert</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>92597635</v>
+        <v>19088843</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Creepy Nuts</t>
+          <t>Harrykahanhai</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>88552396</v>
+        <v>17947202</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>Jasleen Royal</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>87927032</v>
+        <v>17947202</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Troye Sivan</t>
+          <t>Marvin Gaye</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>86850778</v>
+        <v>17341155</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Nadhif Basalamah</t>
+          <t>Tammi Terrell</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>86374102</v>
+        <v>17341155</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>John Lennon</t>
+          <t>Tayson Kryss</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>86093622</v>
+        <v>17313005</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Yoko Ono</t>
+          <t>TWENTY SIX</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>86093622</v>
+        <v>17313005</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Shakira</t>
+          <t>Tainy</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>85673595</v>
+        <v>16982920</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Mesita</t>
+          <t>Norma Jean Martine</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>85241269</v>
+        <v>16670216</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Tiago PZK</t>
+          <t>Ofenbach</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>85241269</v>
+        <v>16670216</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Anirudh Ravichander</t>
+          <t>Mambo Kingz</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>84418983</v>
+        <v>15593015</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Shilpa Rao</t>
+          <t>DJ Luian</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>84418983</v>
+        <v>15593015</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Kumaar</t>
+          <t>Anuel AA</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>84418983</v>
+        <v>15593015</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>FIFTY FIFTY</t>
+          <t>Ñengo Flow</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>84340313</v>
+        <v>15428944</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Jay Rock</t>
+          <t>Arcángel</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>82029901</v>
+        <v>15428944</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>B. Swanson Quartet</t>
+          <t>De La Ghetto</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>81117454</v>
+        <v>15428944</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Oscar Maydon</t>
+          <t>Major Lazer</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>79594997</v>
+        <v>12835896</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Shakin' Stevens</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>79577663</v>
+        <v>11969440</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Paul McCartney</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>77012640</v>
+        <v>11816835</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Anuv Jain</t>
+          <t>Mykola Dmytrovych Leontovych</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>76722991</v>
+        <v>11816835</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Juice WRLD</t>
+          <t>Ivete Sangalo</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>76479562</v>
+        <v>11626550</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Tito Double P</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>75187814</v>
+        <v>11626550</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Maroon 5</t>
+          <t>Lil Durk</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>74167958</v>
+        <v>11437647</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Ava Max</t>
+          <t>Offset</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>73869434</v>
+        <v>10736180</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Mitchell Ayres &amp; His Orchestra</t>
+          <t>Parangolé</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>71986770</v>
+        <v>10683040</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>The Fontane Sisters</t>
+          <t>Leo Santana</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>71986770</v>
+        <v>10683040</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Perry Como</t>
+          <t>The Puppini Sisters</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>71986770</v>
+        <v>10204012</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Siddharth - Garima</t>
+          <t>Brent Faiyaz</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>71978273</v>
+        <v>9784192</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Shreyas Puranik</t>
+          <t>Summer Walker</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>71978273</v>
+        <v>9743353</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Ice Spice</t>
+          <t>Idina Menzel</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>69104079</v>
+        <v>9506181</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>James Arthur</t>
+          <t>Noah Kahan</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>69068980</v>
+        <v>9390315</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Richy Mitch &amp; The Coal Miners</t>
+          <t>Hozier</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>68633294</v>
+        <v>9390315</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>New West</t>
+          <t>The Crypt-Kickers</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>68263544</v>
+        <v>9103266</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Elvis Presley</t>
+          <t>Bobby "Boris" Pickett</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>67288391</v>
+        <v>9103266</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Chris Rea</t>
+          <t>Mikky Ekko</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>66986870</v>
+        <v>9099918</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Mora</t>
+          <t>Tommy Newport</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>64033131</v>
+        <v>9099918</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Rich Amiri</t>
+          <t>Brett Eldredge</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>63290965</v>
+        <v>9041194</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Kygo</t>
+          <t>Meghan Trainor</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>62815586</v>
+        <v>9041194</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Band Aid</t>
+          <t>Blessd</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>61614392</v>
+        <v>8783985</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Fleetwood Mac</t>
+          <t>Pitbull</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>60122630</v>
+        <v>8535915</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Don Omar</t>
+          <t>Burna Boy</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>59547754</v>
+        <v>8511674</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Lucenzo</t>
+          <t>Alicia Keys</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>59547754</v>
+        <v>8464651</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Luar La L</t>
+          <t>Like Mike</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>58623260</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Darlene Love</t>
+          <t>Dimitri Vegas</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>58498310</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>girl in red</t>
+          <t>W&amp;W</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>57079776</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>The Killers</t>
+          <t>Dido</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>56219449</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Jhayco</t>
+          <t>Dimitri Vegas &amp; Like Mike</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>56096708</v>
+        <v>8412394</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Tony Aguirre</t>
+          <t>League of Legends</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>54514795</v>
+        <v>7751725</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Peggy Gou</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>52995186</v>
+        <v>7751725</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Chencho Corleone</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>51183616</v>
+        <v>7719445</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Ana Castela</t>
+          <t>Manu</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>50817926</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Luan Santana</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>50817926</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Aqua</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>49633819</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Chuck Berry</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>48319739</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>USHER</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>47873641</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Britney Spears</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>47746630</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>The Pogues</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>46995745</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Kirsty MacColl</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>46995745</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Good Neighbours</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>44779766</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Bryant Myers</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>43507629</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Cris Mj</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>43455025</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>FloyyMenor</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>43455025</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>The Chainsmokers</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>42281126</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Djo</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>42088829</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Henri René and His Orchestra</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>41979062</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Eartha Kitt</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>41979062</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Taiu</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>41271437</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Tiësto</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>40800942</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Christian Nodal</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>40277841</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Bhupinder Babbal</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>40060300</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Manan Bhardwaj</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>40060300</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>The Beach Boys</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>39365797</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Michael Marcagi</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>39097816</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Twenty One Pilots</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>38261511</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Mahmood</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>37263179</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>DJ Snake</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>37081765</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>4batz</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>35997701</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>SUICIDAL-IDOL</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>35648975</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>The Jackson 5</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>35462610</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Sam Smith</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>35158016</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Charlie Puth</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>34161036</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Bad Gyal</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>33966695</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Tokischa</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>33966695</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Pentatonix</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>33849140</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Ludacris</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>30873075</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Lil Jon</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>30873075</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Lauana Prado</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>30378839</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Megan Thee Stallion</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>29852881</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Stray Kids</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>29846896</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Eagles</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>28471608</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>SMU</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>27916960</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Triz</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>27916960</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>DJ Ws da Igrejinha</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>27916960</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Tropa do Bruxo</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>27916960</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Mc Menor Thalis</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>27916960</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Gaby Music</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>27374075</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Lunay</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>27374075</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Luke Combs</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>26855093</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Geolier</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>25442203</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>TINI</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>25317993</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>YOVNGCHIMI</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>25261380</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Loreen</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>25077035</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Bruce Springsteen</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>24821442</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Avicii</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>24525205</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>One Direction</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>24465748</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Queen</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>24237502</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Kim Petras</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>24204883</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Eladio Carrion</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>24163254</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>TATOOL</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>24125218</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Trueno</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>24125218</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Jonas Brothers</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>23346338</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Daryl Hall &amp; John Oates</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>23338468</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Laufey</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>23086742</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>The Andrews Sisters</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>23084832</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Blake Shelton</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>22081546</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Gwen Stefani</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>22081546</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>B Praak</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>21719218</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Jaani</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>21719218</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>UMI</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>20382688</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Julión Álvarez y su Norteño Banda</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>20069836</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>juan karlos</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>19829640</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>aespa</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>19806719</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Muni Long</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>19250029</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>wonda</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>19220630</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>KZA Produções</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>19220630</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Lil Uzi Vert</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>19088843</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Justin Timberlake</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>18428680</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Jasleen Royal</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>17947202</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Harrykahanhai</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>17947202</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Marvin Gaye</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>17341155</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Tammi Terrell</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>17341155</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>TWENTY SIX</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>17313005</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Tayson Kryss</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>17313005</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Bob Marley &amp; The Wailers</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>17112836</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Tainy</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>16982920</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Norma Jean Martine</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>16670216</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Ofenbach</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>16670216</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Paul Russell</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>16421754</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Anuel AA</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>15593015</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Mambo Kingz</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>15593015</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>DJ Luian</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>15593015</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Ñengo Flow</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>15428944</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>De La Ghetto</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>15428944</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Arcángel</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>15428944</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Beat Record</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>15367818</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>The Beatles</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>14834522</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Cher</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>13939651</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Donny Hathaway</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>13293503</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Major Lazer</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>12835896</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Gene Autry</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>12644239</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>John Williams</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>11816835</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Mykola Dmytrovych Leontovych</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>11816835</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Annalisa</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>11744002</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>LUDMILLA</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>11626550</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Ivete Sangalo</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>11626550</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Bryson Tiller</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>11452312</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Lil Durk</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>11437647</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Angelina Mango</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>11411679</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Stevie Wonder</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>10935284</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>10736180</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Vince Guaraldi Trio</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>10697842</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Parangolé</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>10683040</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Leo Santana</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>10683040</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>The Puppini Sisters</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>10204012</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Michael Jackson</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>10103614</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>*NSYNC</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>9940718</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Leona Lewis</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>9864017</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Brent Faiyaz</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>9784192</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Summer Walker</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>9743353</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Ella Fitzgerald</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>9697579</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Ghali</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>9631062</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>The Citizens of Halloween</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>9594193</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Idina Menzel</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>9506181</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Bobby "Boris" Pickett</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>9103266</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>The Crypt-Kickers</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>9103266</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Tommy Newport</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>9099918</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Mikky Ekko</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>9099918</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Meghan Trainor</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>9041194</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Brett Eldredge</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>9041194</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>PEDRO SAMPAIO</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>8997253</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Wizzard</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>8977788</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Lil Nas X</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>8855809</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>8849436</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>Blessd</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>8783985</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>Irama</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>8736241</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>Pitbull</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>8535915</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>Burna Boy</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>8511674</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>Black Eyed Peas</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>8503727</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>Alicia Keys</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>8464651</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>Dimitri Vegas &amp; Like Mike</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>8412394</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>Dido</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>8412394</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>W&amp;W</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>8412394</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>Dimitri Vegas</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>8412394</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>Like Mike</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>8412394</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>ABBA</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>7947485</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>League of Legends</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>7751725</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Manu</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>7719445</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>Simone Mendes</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
         <v>7719445</v>
       </c>
     </row>
